--- a/Output.xlsx
+++ b/Output.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J111"/>
+  <dimension ref="A1:J126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4640,6 +4640,576 @@
         <v>5.386385687017139</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>IL18</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>MSU</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>22</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>10733</v>
+      </c>
+      <c r="G112" t="n">
+        <v>332.6369026755479</v>
+      </c>
+      <c r="H112" t="n">
+        <v>6.197003023633141</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.9241475022255345</v>
+      </c>
+      <c r="J112" t="n">
+        <v>49.60552085956897</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>IL18</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>MSU</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>22</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>7962</v>
+      </c>
+      <c r="G113" t="n">
+        <v>244.0634492690818</v>
+      </c>
+      <c r="H113" t="n">
+        <v>5.641359112546097</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.1183914142318798</v>
+      </c>
+      <c r="J113" t="n">
+        <v>5.121995665373674</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>IL18</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>MSU</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>22</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>7984</v>
+      </c>
+      <c r="G114" t="n">
+        <v>244.7635778676351</v>
+      </c>
+      <c r="H114" t="n">
+        <v>5.58701266251059</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.09804701571750929</v>
+      </c>
+      <c r="J114" t="n">
+        <v>4.295379269013125</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>IL18</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>MSU</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>22</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>7757</v>
+      </c>
+      <c r="G115" t="n">
+        <v>237.5421703519515</v>
+      </c>
+      <c r="H115" t="n">
+        <v>5.396014083046581</v>
+      </c>
+      <c r="I115" t="n">
+        <v>-0.1112736340531715</v>
+      </c>
+      <c r="J115" t="n">
+        <v>-4.898463964166609</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>IL18</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>MSU</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>22</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>8331</v>
+      </c>
+      <c r="G116" t="n">
+        <v>255.8136341349916</v>
+      </c>
+      <c r="H116" t="n">
+        <v>5.565518495645204</v>
+      </c>
+      <c r="I116" t="n">
+        <v>-0.1137208758804373</v>
+      </c>
+      <c r="J116" t="n">
+        <v>-5.227069240494274</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>IL18</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>MSU</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>23</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>10906</v>
+      </c>
+      <c r="G117" t="n">
+        <v>338.1903225487842</v>
+      </c>
+      <c r="H117" t="n">
+        <v>6.300462860678094</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.1034598370449524</v>
+      </c>
+      <c r="J117" t="n">
+        <v>5.553419873236294</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>IL18</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>MSU</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>23</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>8095</v>
+      </c>
+      <c r="G118" t="n">
+        <v>248.2968732603453</v>
+      </c>
+      <c r="H118" t="n">
+        <v>5.739211802417966</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.09785268987186857</v>
+      </c>
+      <c r="J118" t="n">
+        <v>4.23342399126355</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>IL18</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>MSU</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>23</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>7949</v>
+      </c>
+      <c r="G119" t="n">
+        <v>243.6497625942543</v>
+      </c>
+      <c r="H119" t="n">
+        <v>5.561588536542627</v>
+      </c>
+      <c r="I119" t="n">
+        <v>-0.02542412596796328</v>
+      </c>
+      <c r="J119" t="n">
+        <v>-1.113815273380794</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>IL18</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>MSU</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>23</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>8760</v>
+      </c>
+      <c r="G120" t="n">
+        <v>269.4928951319629</v>
+      </c>
+      <c r="H120" t="n">
+        <v>6.121807573192111</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.7257934901455299</v>
+      </c>
+      <c r="J120" t="n">
+        <v>31.9507247800114</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>IL18</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>MSU</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>23</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>9130</v>
+      </c>
+      <c r="G121" t="n">
+        <v>281.3061389958998</v>
+      </c>
+      <c r="H121" t="n">
+        <v>6.120137125662558</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.5546186300173543</v>
+      </c>
+      <c r="J121" t="n">
+        <v>25.49250486090821</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>IL18</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>MSU</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>24</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>11066</v>
+      </c>
+      <c r="G122" t="n">
+        <v>343.3286682944372</v>
+      </c>
+      <c r="H122" t="n">
+        <v>6.396189894768905</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.09572703409081118</v>
+      </c>
+      <c r="J122" t="n">
+        <v>5.138345745652998</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>IL18</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>MSU</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>24</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>8414</v>
+      </c>
+      <c r="G123" t="n">
+        <v>258.458680952656</v>
+      </c>
+      <c r="H123" t="n">
+        <v>5.974095012487473</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.2348832100695066</v>
+      </c>
+      <c r="J123" t="n">
+        <v>10.16180769231073</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>IL18</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>MSU</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>24</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>9448</v>
+      </c>
+      <c r="G124" t="n">
+        <v>291.4700117684326</v>
+      </c>
+      <c r="H124" t="n">
+        <v>6.653141209485777</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1.09155267294315</v>
+      </c>
+      <c r="J124" t="n">
+        <v>47.82024917417834</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>IL18</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>MSU</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>24</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>8509</v>
+      </c>
+      <c r="G125" t="n">
+        <v>261.4870496343192</v>
+      </c>
+      <c r="H125" t="n">
+        <v>5.939946579887327</v>
+      </c>
+      <c r="I125" t="n">
+        <v>-0.1818609933047837</v>
+      </c>
+      <c r="J125" t="n">
+        <v>-8.005845497643634</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>IL18</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>MSU</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>24</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>9131</v>
+      </c>
+      <c r="G126" t="n">
+        <v>281.3380853143285</v>
+      </c>
+      <c r="H126" t="n">
+        <v>6.120832154395814</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.0006950287332561089</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.03194631842865192</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
